--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdSupv.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdSupv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F63F91-66DC-4CBF-9B1D-0AEE1337CB33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6EB28F-6525-4191-9D23-8ED663CF46B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8412" yWindow="24" windowWidth="14532" windowHeight="12108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -230,10 +230,6 @@
     <t>啟用記號</t>
   </si>
   <si>
-    <t>Y:啟用 , N:未啟用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>findSupvReasonCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -259,6 +255,11 @@
   </si>
   <si>
     <t>理由階層</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:啟用
+N:未啟用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -897,10 +898,10 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -911,7 +912,7 @@
     <col min="8" max="16384" width="21.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
@@ -920,13 +921,13 @@
         <v>31</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="24" t="s">
@@ -939,7 +940,7 @@
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
@@ -954,7 +955,7 @@
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="31" t="s">
         <v>7</v>
       </c>
@@ -965,7 +966,7 @@
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="31" t="s">
         <v>8</v>
       </c>
@@ -976,7 +977,7 @@
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="31" t="s">
         <v>9</v>
       </c>
@@ -987,7 +988,7 @@
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="31" t="s">
         <v>10</v>
       </c>
@@ -998,7 +999,7 @@
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="13" customFormat="1">
       <c r="A8" s="24" t="s">
         <v>11</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="30">
         <v>1</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>18</v>
@@ -1042,7 +1043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="30">
         <v>2</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>21</v>
@@ -1063,7 +1064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="30">
         <v>3</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>18</v>
@@ -1084,7 +1085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="32.4">
       <c r="A12" s="30">
         <v>4</v>
       </c>
@@ -1102,10 +1103,10 @@
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="30">
         <v>5</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="30">
         <v>6</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="30">
         <v>7</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="30">
         <v>8</v>
       </c>
@@ -1185,14 +1186,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="11"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
@@ -1200,7 +1201,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="6"/>
@@ -1208,14 +1209,14 @@
       <c r="F19" s="11"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="11"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="14"/>
@@ -1223,7 +1224,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="14"/>
@@ -1231,7 +1232,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="14"/>
@@ -1239,7 +1240,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="14"/>
@@ -1247,14 +1248,14 @@
       <c r="F24" s="11"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7">
       <c r="B25" s="7"/>
       <c r="C25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7">
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
       <c r="D26" s="6"/>
@@ -1262,12 +1263,12 @@
       <c r="F26" s="11"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7">
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7">
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
       <c r="D28" s="6"/>
@@ -1298,7 +1299,7 @@
       <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -1306,7 +1307,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -1325,15 +1326,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
